--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ063Log.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ063Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DCC9A7-EE93-47A2-AF58-8B9ABF1F5316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F872571-C78C-4047-8036-8CF0289DB594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,10 +160,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>A:新增;C:異動</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>Decimald</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -217,10 +213,6 @@
   </si>
   <si>
     <t>最後更新人員</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>A:資料key值報送錯誤，本行結案;B:協商不成立;C:更新變更還款條件</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -294,6 +286,17 @@
   <si>
     <t>ukeyEq</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新增
+C:異動</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:資料key值報送錯誤，本行結案
+B:協商不成立
+C:更新變更還款條件</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -865,7 +868,7 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -884,10 +887,10 @@
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
@@ -912,10 +915,10 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -1005,10 +1008,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>18</v>
@@ -1024,10 +1027,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>18</v>
@@ -1038,12 +1041,12 @@
       <c r="F11" s="15"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>3</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>17</v>
@@ -1056,7 +1059,7 @@
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="14" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1064,13 +1067,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="D13" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>44</v>
       </c>
       <c r="E13" s="15">
         <v>8</v>
@@ -1078,25 +1081,25 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>5</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="E14" s="15">
         <v>1</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1104,13 +1107,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="15">
         <v>8</v>
@@ -1123,13 +1126,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="D16" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>28</v>
       </c>
       <c r="E16" s="15">
         <v>8</v>
@@ -1142,13 +1145,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>30</v>
-      </c>
       <c r="D17" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="15">
         <v>6</v>
@@ -1161,13 +1164,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="D18" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="E18" s="15">
         <v>8</v>
@@ -1180,13 +1183,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>35</v>
-      </c>
       <c r="D19" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" s="15">
         <v>6</v>
@@ -1735,24 +1738,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
